--- a/olympiad_analysis/norway_beatlon.xlsx
+++ b/olympiad_analysis/norway_beatlon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rexandel\Desktop\GitHub\big_data_research\olympiad_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576BF93-A264-47FC-BF7C-4DBCD34A71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DDDE35-273F-4E33-AF80-2FBFA63A82AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CF086F1-F5FC-4AD6-8255-4DF0CBD20F6A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Olympiad</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Albertville (1992)</t>
+  </si>
+  <si>
+    <t>Top three</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,16 +124,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -142,85 +191,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -234,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -246,38 +216,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2F353E-6AA2-40E6-946E-752E8C1ECF96}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,59 +577,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9">
+      <c r="C1" s="8">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>7</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>8</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <v>5</v>
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -682,7 +645,10 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5">
+        <f>SUM(B2:D2)</f>
+        <v>0</v>
+      </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -692,23 +658,23 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <v>1</v>
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -717,9 +683,12 @@
         <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J10" si="0">SUM(B3:D3)</f>
+        <v>0</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -729,20 +698,20 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -751,12 +720,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -766,12 +738,12 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -779,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -793,7 +765,10 @@
       <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -803,10 +778,10 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="4">
@@ -830,7 +805,10 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -840,12 +818,12 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -853,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -867,7 +845,10 @@
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -877,20 +858,20 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -899,12 +880,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -914,23 +898,23 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -939,9 +923,12 @@
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -951,34 +938,37 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1006,14 +996,6 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1024,14 +1006,6 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1042,14 +1016,6 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1060,14 +1026,6 @@
       <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1078,14 +1036,6 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1096,14 +1046,6 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1114,14 +1056,6 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1132,14 +1066,6 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1150,14 +1076,6 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>

--- a/olympiad_analysis/norway_beatlon.xlsx
+++ b/olympiad_analysis/norway_beatlon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rexandel\Desktop\GitHub\big_data_research\olympiad_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DDDE35-273F-4E33-AF80-2FBFA63A82AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72E49E5-0609-45F7-A747-497B426EEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CF086F1-F5FC-4AD6-8255-4DF0CBD20F6A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Olympiad</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Albertville (1992)</t>
-  </si>
-  <si>
-    <t>Top three</t>
   </si>
 </sst>
 </file>
@@ -563,7 +560,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +601,7 @@
       <c r="I1" s="9">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -645,10 +640,7 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
-        <f>SUM(B2:D2)</f>
-        <v>0</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -685,10 +677,7 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J10" si="0">SUM(B3:D3)</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -725,10 +714,7 @@
       <c r="I4" s="5">
         <v>2</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -765,10 +751,7 @@
       <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -805,10 +788,7 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -845,10 +825,7 @@
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -885,10 +862,7 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -925,10 +899,7 @@
       <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -965,10 +936,7 @@
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
